--- a/Proyectos/2015/12/P1404 - RNCFAC, Alfredo Martinez_MO/Planeacion/Plan_de_proyecto.xlsx
+++ b/Proyectos/2015/12/P1404 - RNCFAC, Alfredo Martinez_MO/Planeacion/Plan_de_proyecto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,6 +31,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="Complej." vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Complej." vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Plan Riesgos'!$A$1:$F$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
   <si>
     <t>Plan del Proyecto</t>
   </si>
@@ -263,9 +264,6 @@
   </si>
   <si>
     <t>Carta de aceptación</t>
-  </si>
-  <si>
-    <t>Especficado escuesta de satisfaccion</t>
   </si>
   <si>
     <t>Ciclo de Vida</t>
@@ -1343,7 +1341,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1439,7 +1437,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1878,15 +1876,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>27360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1895,8 +1893,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9686880"/>
+          <a:off x="27360" y="0"/>
+          <a:ext cx="9524520" cy="9686520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1922,15 +1920,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>27360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1939,8 +1937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9686880"/>
+          <a:off x="27360" y="0"/>
+          <a:ext cx="9524520" cy="9686520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1966,15 +1964,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>27360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1983,8 +1981,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9686880"/>
+          <a:off x="27360" y="0"/>
+          <a:ext cx="9524520" cy="9686520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2018,7 +2016,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="C16:D18 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5"/>
@@ -2153,8 +2151,8 @@
   </sheetPr>
   <dimension ref="A1:AMI30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="C16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5"/>
@@ -4375,7 +4373,7 @@
         <v>42373</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="15" t="s">
         <v>33</v>
       </c>
@@ -4385,8 +4383,8 @@
       <c r="C18" s="16" t="n">
         <v>42367</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>35</v>
+      <c r="D18" s="8" t="n">
+        <v>42388</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -4414,7 +4412,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="12"/>
@@ -4428,39 +4426,39 @@
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="53.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="22"/>
     </row>
@@ -4502,7 +4500,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="C16:D18 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4518,7 +4516,7 @@
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24"/>
       <c r="B1" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -4526,7 +4524,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -4535,103 +4533,103 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="29" t="s">
         <v>48</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>52</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="C5" s="30" t="n">
         <v>3313482553</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="31"/>
       <c r="E6" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>61</v>
       </c>
       <c r="C7" s="30" t="n">
         <v>3318039095</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="C8" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="E8" s="33" t="s">
         <v>67</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>11</v>
@@ -4640,10 +4638,10 @@
         <v>3312448000</v>
       </c>
       <c r="D9" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,7 +4660,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -4671,19 +4669,19 @@
     </row>
     <row r="13" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="C13" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="D13" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="E13" s="36" t="s">
         <v>76</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4714,9 +4712,30 @@
       <c r="D17" s="37"/>
       <c r="E17" s="38"/>
     </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+    </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -4730,7 +4749,7 @@
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="40"/>
       <c r="B23" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4761,7 +4780,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="C16:D18 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4776,19 +4795,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>83</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4873,8 +4892,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4889,7 +4908,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="1" sqref="C16:D18 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5971,7 +5990,7 @@
     </row>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
@@ -6998,19 +7017,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="C3" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="50" t="s">
+      <c r="E3" s="50" t="s">
         <v>88</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>89</v>
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
@@ -9058,68 +9077,68 @@
     </row>
     <row r="5" s="56" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="52" t="s">
+      <c r="E5" s="55" t="s">
         <v>91</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" s="56" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" s="56" customFormat="true" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="52" t="s">
+      <c r="D7" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="E7" s="55" t="s">
         <v>97</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" s="56" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="52" t="s">
+      <c r="D8" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="E8" s="55" t="s">
         <v>101</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" s="56" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9172,8 +9191,8 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="C16:D18 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9203,7 +9222,7 @@
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9215,100 +9234,100 @@
     </row>
     <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="C4" s="36" t="s">
         <v>112</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>113</v>
       </c>
       <c r="D4" s="36" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="36"/>
       <c r="J4" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>112</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>113</v>
       </c>
       <c r="D5" s="36" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" s="36"/>
       <c r="J5" s="61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>118</v>
-      </c>
       <c r="C6" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="36" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9422,7 +9441,7 @@
   <dimension ref="A1:JA43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="C16:D18 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9452,7 +9471,7 @@
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="67"/>
       <c r="G2" s="67"/>
@@ -9461,7 +9480,7 @@
       <c r="J2" s="67"/>
       <c r="K2" s="68"/>
       <c r="IR2" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="IS2" s="69"/>
       <c r="IT2" s="69"/>
@@ -9486,51 +9505,51 @@
       <c r="J3" s="73"/>
       <c r="K3" s="74"/>
       <c r="AE3" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF3" s="75" t="s">
         <v>122</v>
-      </c>
-      <c r="AF3" s="75" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="C4" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="D4" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="E4" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="F4" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="G4" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="H4" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="I4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="J4" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="K4" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="K4" s="78" t="s">
-        <v>134</v>
-      </c>
       <c r="AE4" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF4" s="80" t="s">
         <v>122</v>
-      </c>
-      <c r="AF4" s="80" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9538,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="81" t="n">
         <v>1</v>
@@ -9554,19 +9573,19 @@
         <v>4</v>
       </c>
       <c r="G5" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="I5" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="84" t="s">
+      <c r="J5" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="J5" s="85" t="s">
+      <c r="K5" s="86" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="86" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9574,7 +9593,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="81" t="n">
         <v>4</v>
@@ -9590,19 +9609,19 @@
         <v>3</v>
       </c>
       <c r="G6" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="I6" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="I6" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="J6" s="85" t="s">
-        <v>144</v>
-      </c>
       <c r="K6" s="86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9610,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="81" t="n">
         <v>4</v>
@@ -9626,19 +9645,19 @@
         <v>3</v>
       </c>
       <c r="G7" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="82" t="s">
-        <v>147</v>
-      </c>
       <c r="I7" s="81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="86" t="s">
         <v>139</v>
-      </c>
-      <c r="K7" s="86" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9646,7 +9665,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="81" t="n">
         <v>5</v>
@@ -9662,19 +9681,19 @@
         <v>4</v>
       </c>
       <c r="G8" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="82" t="s">
         <v>149</v>
-      </c>
-      <c r="H8" s="82" t="s">
-        <v>150</v>
       </c>
       <c r="I8" s="81" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K8" s="86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="IS8" s="87"/>
       <c r="IT8" s="88"/>
@@ -9690,7 +9709,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="81" t="n">
         <v>5</v>
@@ -9706,25 +9725,25 @@
         <v>4</v>
       </c>
       <c r="G9" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="82" t="s">
         <v>152</v>
-      </c>
-      <c r="H9" s="82" t="s">
-        <v>153</v>
       </c>
       <c r="I9" s="81" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="IS9" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="K9" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="IS9" s="92" t="s">
+      <c r="IT9" s="93" t="s">
         <v>155</v>
-      </c>
-      <c r="IT9" s="93" t="s">
-        <v>156</v>
       </c>
       <c r="IU9" s="94" t="n">
         <v>0.9</v>
@@ -9755,7 +9774,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="81" t="n">
         <v>1</v>
@@ -9771,23 +9790,23 @@
         <v>3</v>
       </c>
       <c r="G10" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="I10" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="I10" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="85" t="s">
-        <v>160</v>
-      </c>
       <c r="K10" s="86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="IS10" s="92"/>
       <c r="IT10" s="93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="IU10" s="94" t="n">
         <v>0.7</v>
@@ -9832,7 +9851,7 @@
       <c r="K11" s="108"/>
       <c r="IS11" s="92"/>
       <c r="IT11" s="93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="IU11" s="94" t="n">
         <v>0.5</v>
@@ -9877,7 +9896,7 @@
       <c r="K12" s="108"/>
       <c r="IS12" s="92"/>
       <c r="IT12" s="93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="IU12" s="94" t="n">
         <v>0.3</v>
@@ -9922,7 +9941,7 @@
       <c r="K13" s="108"/>
       <c r="IS13" s="92"/>
       <c r="IT13" s="93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="IU13" s="115" t="n">
         <v>0.1</v>
@@ -10005,19 +10024,19 @@
       <c r="IT15" s="128"/>
       <c r="IU15" s="128"/>
       <c r="IV15" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="IW15" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="IW15" s="93" t="s">
+      <c r="IX15" s="93" t="s">
         <v>163</v>
       </c>
-      <c r="IX15" s="93" t="s">
-        <v>164</v>
-      </c>
       <c r="IY15" s="93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="IZ15" s="130" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10041,7 +10060,7 @@
       <c r="IT16" s="128"/>
       <c r="IU16" s="94"/>
       <c r="IV16" s="131" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="IW16" s="131"/>
       <c r="IX16" s="131"/>
@@ -10118,7 +10137,7 @@
       <c r="J19" s="125"/>
       <c r="K19" s="126"/>
       <c r="IS19" s="135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="IT19" s="135"/>
       <c r="IU19" s="133"/>
@@ -10146,12 +10165,12 @@
       <c r="J20" s="125"/>
       <c r="K20" s="126"/>
       <c r="IS20" s="136" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="IT20" s="137"/>
       <c r="IU20" s="133"/>
       <c r="IV20" s="138" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="IW20" s="138"/>
       <c r="IX20" s="138"/>
@@ -10176,12 +10195,12 @@
       <c r="J21" s="125"/>
       <c r="K21" s="126"/>
       <c r="IS21" s="136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="IT21" s="139"/>
       <c r="IU21" s="133"/>
       <c r="IV21" s="138" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="IW21" s="138"/>
       <c r="IX21" s="138"/>
@@ -10206,12 +10225,12 @@
       <c r="J22" s="125"/>
       <c r="K22" s="126"/>
       <c r="IS22" s="136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="IT22" s="140"/>
       <c r="IU22" s="133"/>
       <c r="IV22" s="138" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="IW22" s="138"/>
       <c r="IX22" s="138"/>
